--- a/springboot.xlsx
+++ b/springboot.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" activeTab="1"/>
+    <workbookView windowWidth="28125" windowHeight="12690" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1015,10 +1015,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1051,11 +1051,33 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1068,14 +1090,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,54 +1110,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,10 +1142,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1188,10 +1174,24 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1204,7 +1204,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,7 +1264,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,13 +1282,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1246,37 +1342,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1288,61 +1366,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,37 +1378,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1428,15 +1428,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1466,6 +1457,24 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1486,15 +1495,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1503,10 +1503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1515,133 +1515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2135,7 +2135,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="40176450"/>
+          <a:off x="685800" y="40024050"/>
           <a:ext cx="5705475" cy="3981450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2177,7 +2177,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="48920400"/>
+          <a:off x="1371600" y="48768000"/>
           <a:ext cx="5762625" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2219,7 +2219,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="52177950"/>
+          <a:off x="1371600" y="52025550"/>
           <a:ext cx="3981450" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2261,7 +2261,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="52692300"/>
+          <a:off x="1371600" y="52539900"/>
           <a:ext cx="5848350" cy="5410200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2303,7 +2303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="58007250"/>
+          <a:off x="1371600" y="57854850"/>
           <a:ext cx="5514975" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2387,7 +2387,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="63150750"/>
+          <a:off x="1371600" y="62998350"/>
           <a:ext cx="2324100" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2429,7 +2429,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4676775" y="64522350"/>
+          <a:off x="4676775" y="64369950"/>
           <a:ext cx="3109595" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2471,7 +2471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="67179825"/>
+          <a:off x="714375" y="67027425"/>
           <a:ext cx="5181600" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2513,7 +2513,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="69865875"/>
+          <a:off x="685800" y="69713475"/>
           <a:ext cx="5572125" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2555,7 +2555,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="72066150"/>
+          <a:off x="1371600" y="71913750"/>
           <a:ext cx="5895975" cy="4295775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3209,7 +3209,7 @@
   <dimension ref="A1:C419"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="M437" sqref="M437"/>
+      <selection activeCell="O437" sqref="O437"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3627,22 +3627,22 @@
         <v>139</v>
       </c>
     </row>
-    <row r="221" ht="16.5" spans="2:2">
+    <row r="221" spans="2:2">
       <c r="B221" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="222" ht="16.5" spans="2:2">
+    <row r="222" spans="2:2">
       <c r="B222" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="223" ht="16.5" spans="2:2">
+    <row r="223" spans="2:2">
       <c r="B223" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="224" ht="16.5" spans="2:2">
+    <row r="224" spans="2:2">
       <c r="B224" s="4" t="s">
         <v>143</v>
       </c>

--- a/springboot.xlsx
+++ b/springboot.xlsx
@@ -1016,9 +1016,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1052,75 +1052,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,39 +1067,37 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1189,7 +1119,77 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,7 +1204,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,55 +1324,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1282,31 +1348,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1318,31 +1372,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1354,37 +1384,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,6 +1395,32 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1409,21 +1435,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1445,11 +1456,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,31 +1475,22 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1503,10 +1503,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1515,133 +1515,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1817,13 +1817,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1841,7 +1841,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="11487150"/>
+          <a:off x="685800" y="9086850"/>
           <a:ext cx="6134100" cy="1876425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1859,13 +1859,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>115</xdr:row>
+      <xdr:row>101</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1883,7 +1883,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="800100" y="18097500"/>
+          <a:off x="800100" y="15697200"/>
           <a:ext cx="3800475" cy="1752600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1901,13 +1901,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>123</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>143</xdr:row>
+      <xdr:row>129</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1925,7 +1925,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1323975" y="21135975"/>
+          <a:off x="1323975" y="18735675"/>
           <a:ext cx="2314575" cy="3381375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1943,13 +1943,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>160</xdr:row>
+      <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>166</xdr:row>
+      <xdr:row>152</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1967,7 +1967,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2057400" y="27432000"/>
+          <a:off x="2057400" y="25031700"/>
           <a:ext cx="5572125" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1985,13 +1985,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>174</xdr:row>
+      <xdr:row>160</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2009,7 +2009,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="29832300"/>
+          <a:off x="1371600" y="27432000"/>
           <a:ext cx="5772150" cy="3333750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2027,13 +2027,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>212</xdr:row>
+      <xdr:row>198</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>217</xdr:row>
+      <xdr:row>203</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2051,7 +2051,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="36347400"/>
+          <a:off x="1371600" y="33947100"/>
           <a:ext cx="5772150" cy="895350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2069,13 +2069,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>193</xdr:row>
+      <xdr:row>179</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>208</xdr:row>
+      <xdr:row>194</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2093,7 +2093,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1343025" y="33156525"/>
+          <a:off x="1343025" y="30756225"/>
           <a:ext cx="5038725" cy="2505075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2111,13 +2111,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>233</xdr:row>
+      <xdr:row>219</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>256</xdr:row>
+      <xdr:row>242</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2135,7 +2135,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="40024050"/>
+          <a:off x="685800" y="37623750"/>
           <a:ext cx="5705475" cy="3981450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2153,13 +2153,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>284</xdr:row>
+      <xdr:row>270</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>300</xdr:row>
+      <xdr:row>286</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2177,7 +2177,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="48768000"/>
+          <a:off x="1371600" y="46367700"/>
           <a:ext cx="5762625" cy="2876550"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2195,13 +2195,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>303</xdr:row>
+      <xdr:row>289</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2219,7 +2219,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="52025550"/>
+          <a:off x="1371600" y="49625250"/>
           <a:ext cx="3981450" cy="533400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2237,13 +2237,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>306</xdr:row>
+      <xdr:row>292</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>337</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2261,7 +2261,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="52539900"/>
+          <a:off x="1371600" y="50139600"/>
           <a:ext cx="5848350" cy="5410200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2279,13 +2279,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>337</xdr:row>
+      <xdr:row>323</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>359</xdr:row>
+      <xdr:row>345</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2303,7 +2303,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="57854850"/>
+          <a:off x="1371600" y="55454550"/>
           <a:ext cx="5514975" cy="3848100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2363,13 +2363,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>367</xdr:row>
+      <xdr:row>353</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>373</xdr:row>
+      <xdr:row>359</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2387,7 +2387,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="62998350"/>
+          <a:off x="1371600" y="60598050"/>
           <a:ext cx="2324100" cy="1038225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2405,13 +2405,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>375</xdr:row>
+      <xdr:row>361</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>242570</xdr:colOff>
-      <xdr:row>383</xdr:row>
+      <xdr:row>369</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2429,7 +2429,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4676775" y="64369950"/>
+          <a:off x="4676775" y="61969650"/>
           <a:ext cx="3109595" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2447,13 +2447,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>390</xdr:row>
+      <xdr:row>376</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>403</xdr:row>
+      <xdr:row>389</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2471,7 +2471,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="714375" y="67027425"/>
+          <a:off x="714375" y="64627125"/>
           <a:ext cx="5181600" cy="2143125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2489,13 +2489,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>406</xdr:row>
+      <xdr:row>392</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
-      <xdr:row>417</xdr:row>
+      <xdr:row>403</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2513,7 +2513,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="685800" y="69713475"/>
+          <a:off x="685800" y="67313175"/>
           <a:ext cx="5572125" cy="1857375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2531,13 +2531,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>419</xdr:row>
+      <xdr:row>405</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>409575</xdr:colOff>
-      <xdr:row>444</xdr:row>
+      <xdr:row>430</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -2555,7 +2555,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1371600" y="71913750"/>
+          <a:off x="1371600" y="69513450"/>
           <a:ext cx="5895975" cy="4295775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3206,10 +3206,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C419"/>
+  <dimension ref="A1:C405"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A415" workbookViewId="0">
-      <selection activeCell="O437" sqref="O437"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -3387,481 +3387,481 @@
         <v>92</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
-      <c r="B62" t="s">
+    <row r="48" spans="2:2">
+      <c r="B48" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="1" t="s">
         <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="65" spans="2:2">
       <c r="B65" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="79" spans="2:2">
-      <c r="B79" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
-      <c r="B80" t="s">
+    <row r="66" spans="2:2">
+      <c r="B66" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="81" spans="2:2">
-      <c r="B81" t="s">
+    <row r="67" spans="2:2">
+      <c r="B67" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="83" spans="1:1">
-      <c r="A83" s="1" t="s">
+    <row r="69" spans="1:1">
+      <c r="A69" s="1" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2">
+      <c r="B70" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2">
+      <c r="B82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
+      <c r="B83" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="84" spans="2:2">
       <c r="B84" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
-      <c r="A95" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2">
-      <c r="B96" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2">
-      <c r="B97" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="98" spans="2:2">
-      <c r="B98" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="99" spans="2:2">
-      <c r="B99" s="1" t="s">
+    <row r="85" spans="2:2">
+      <c r="B85" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="101" spans="1:1">
-      <c r="A101" s="1" t="s">
+    <row r="87" spans="1:1">
+      <c r="A87" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="2:2">
-      <c r="B102" t="s">
+    <row r="88" spans="2:2">
+      <c r="B88" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="2:2">
-      <c r="B103" t="s">
+    <row r="89" spans="2:2">
+      <c r="B89" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="104" spans="2:2">
-      <c r="B104" t="s">
+    <row r="90" spans="2:2">
+      <c r="B90" t="s">
         <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2">
+      <c r="B91" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1">
+      <c r="A104" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="105" spans="2:2">
       <c r="B105" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="119" spans="2:2">
-      <c r="B119" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="120" spans="2:2">
-      <c r="B120" t="s">
+    <row r="106" spans="2:2">
+      <c r="B106" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="121" spans="3:3">
-      <c r="C121" t="s">
+    <row r="107" spans="3:3">
+      <c r="C107" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="123" spans="2:2">
-      <c r="B123" t="s">
+    <row r="109" spans="2:2">
+      <c r="B109" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="146" spans="1:1">
-      <c r="A146" s="1" t="s">
+    <row r="132" spans="1:1">
+      <c r="A132" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="147" spans="2:2">
-      <c r="B147" t="s">
+    <row r="133" spans="2:2">
+      <c r="B133" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="148" spans="2:2">
-      <c r="B148" t="s">
+    <row r="134" spans="2:2">
+      <c r="B134" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="149" spans="2:2">
-      <c r="B149" t="s">
+    <row r="135" spans="2:2">
+      <c r="B135" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="150" spans="2:2">
-      <c r="B150" t="s">
+    <row r="136" spans="2:2">
+      <c r="B136" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="151" spans="2:2">
-      <c r="B151" t="s">
+    <row r="137" spans="2:2">
+      <c r="B137" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="152" spans="2:2">
-      <c r="B152" s="2" t="s">
+    <row r="138" spans="2:2">
+      <c r="B138" s="2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="153" spans="2:2">
-      <c r="B153" t="s">
+    <row r="139" spans="2:2">
+      <c r="B139" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="155" spans="1:1">
-      <c r="A155" s="1" t="s">
+    <row r="141" spans="1:1">
+      <c r="A141" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="156" spans="2:2">
-      <c r="B156" s="2" t="s">
+    <row r="142" spans="2:2">
+      <c r="B142" s="2" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="157" spans="2:2">
-      <c r="B157" t="s">
+    <row r="143" spans="2:2">
+      <c r="B143" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="158" spans="3:3">
-      <c r="C158" t="s">
+    <row r="144" spans="3:3">
+      <c r="C144" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="159" spans="3:3">
-      <c r="C159" t="s">
+    <row r="145" spans="3:3">
+      <c r="C145" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="160" spans="3:3">
-      <c r="C160" t="s">
+    <row r="146" spans="3:3">
+      <c r="C146" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="169" spans="3:3">
-      <c r="C169" s="1" t="s">
+    <row r="155" spans="3:3">
+      <c r="C155" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="170" spans="3:3">
-      <c r="C170" s="1" t="s">
+    <row r="156" spans="3:3">
+      <c r="C156" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="171" spans="3:3">
-      <c r="C171" t="s">
+    <row r="157" spans="3:3">
+      <c r="C157" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="173" spans="2:2">
-      <c r="B173" t="s">
+    <row r="159" spans="2:2">
+      <c r="B159" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="174" spans="2:2">
-      <c r="B174" t="s">
+    <row r="160" spans="2:2">
+      <c r="B160" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="209" spans="3:3">
-      <c r="C209" s="1" t="s">
+    <row r="195" spans="3:3">
+      <c r="C195" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="210" spans="3:3">
-      <c r="C210" s="1" t="s">
+    <row r="196" spans="3:3">
+      <c r="C196" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="212" spans="2:2">
-      <c r="B212" t="s">
+    <row r="198" spans="2:2">
+      <c r="B198" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="220" ht="16.5" spans="2:2">
-      <c r="B220" s="3" t="s">
+    <row r="206" ht="16.5" spans="2:2">
+      <c r="B206" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="221" spans="2:2">
-      <c r="B221" s="4" t="s">
+    <row r="207" spans="2:2">
+      <c r="B207" s="4" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="222" spans="2:2">
-      <c r="B222" s="4" t="s">
+    <row r="208" spans="2:2">
+      <c r="B208" s="4" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="223" spans="2:2">
-      <c r="B223" s="4" t="s">
+    <row r="209" spans="2:2">
+      <c r="B209" s="4" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="224" spans="2:2">
-      <c r="B224" s="4" t="s">
+    <row r="210" spans="2:2">
+      <c r="B210" s="4" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="225" ht="16.5" spans="2:2">
-      <c r="B225" s="3" t="s">
+    <row r="211" ht="16.5" spans="2:2">
+      <c r="B211" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="227" spans="2:2">
-      <c r="B227" t="s">
+    <row r="213" spans="2:2">
+      <c r="B213" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="228" spans="3:3">
-      <c r="C228" t="s">
+    <row r="214" spans="3:3">
+      <c r="C214" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="229" spans="2:2">
-      <c r="B229" t="s">
+    <row r="215" spans="2:2">
+      <c r="B215" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="232" spans="1:1">
-      <c r="A232" s="1" t="s">
+    <row r="218" spans="1:1">
+      <c r="A218" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="233" spans="2:2">
-      <c r="B233" t="s">
+    <row r="219" spans="2:2">
+      <c r="B219" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="258" spans="2:2">
-      <c r="B258" t="s">
+    <row r="244" spans="2:2">
+      <c r="B244" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="259" spans="2:2">
-      <c r="B259" t="s">
+    <row r="245" spans="2:2">
+      <c r="B245" t="s">
         <v>151</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2">
+      <c r="B246" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
+      <c r="A249" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B249" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="250" spans="3:3">
+      <c r="C250" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1">
+      <c r="A252" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2">
+      <c r="B253" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2">
+      <c r="B254" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="255" spans="2:2">
+      <c r="B255" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="256" spans="2:2">
+      <c r="B256" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="257" spans="2:2">
+      <c r="B257" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1">
+      <c r="A259" s="1" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="260" spans="2:2">
       <c r="B260" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="263" spans="1:2">
-      <c r="A263" s="1" t="s">
-        <v>153</v>
-      </c>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="261" spans="2:2">
+      <c r="B261" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="262" spans="2:2">
+      <c r="B262" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="263" spans="2:2">
       <c r="B263" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="264" spans="3:3">
-      <c r="C264" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
-      <c r="A266" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+    </row>
+    <row r="265" spans="2:2">
+      <c r="B265" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="266" spans="2:2">
+      <c r="B266" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="267" spans="2:2">
       <c r="B267" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="268" spans="2:2">
-      <c r="B268" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="269" spans="2:2">
-      <c r="B269" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="270" spans="2:2">
       <c r="B270" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="271" spans="2:2">
-      <c r="B271" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
-      <c r="A273" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="274" spans="2:2">
-      <c r="B274" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="275" spans="2:2">
-      <c r="B275" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="276" spans="2:2">
-      <c r="B276" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="277" spans="2:2">
-      <c r="B277" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="279" spans="2:2">
-      <c r="B279" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="280" spans="2:2">
-      <c r="B280" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="281" spans="2:2">
-      <c r="B281" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="284" spans="2:2">
-      <c r="B284" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="303" spans="2:2">
-      <c r="B303" t="s">
+    <row r="289" spans="2:2">
+      <c r="B289" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="364" spans="1:1">
-      <c r="A364" s="1" t="s">
+    <row r="350" spans="1:1">
+      <c r="A350" s="1" t="s">
         <v>172</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2">
+      <c r="B351" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="352" spans="3:3">
+      <c r="C352" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1">
+      <c r="A361" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="362" spans="2:2">
+      <c r="B362" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="363" spans="2:2">
+      <c r="B363" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="364" spans="2:2">
+      <c r="B364" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="365" spans="2:2">
       <c r="B365" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="366" spans="3:3">
-      <c r="C366" t="s">
-        <v>174</v>
+        <v>180</v>
+      </c>
+    </row>
+    <row r="366" spans="2:2">
+      <c r="B366" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="367" spans="2:2">
       <c r="B367" t="s">
-        <v>175</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="368" spans="2:2">
+      <c r="B368" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="375" spans="1:1">
       <c r="A375" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="376" spans="2:2">
       <c r="B376" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="377" spans="2:2">
-      <c r="B377" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="378" spans="2:2">
-      <c r="B378" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="379" spans="2:2">
-      <c r="B379" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="380" spans="2:2">
-      <c r="B380" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="381" spans="2:2">
-      <c r="B381" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="382" spans="2:2">
-      <c r="B382" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1">
-      <c r="A389" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="390" spans="2:2">
-      <c r="B390" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="406" spans="2:2">
-      <c r="B406" t="s">
+    <row r="392" spans="2:2">
+      <c r="B392" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="419" spans="2:2">
-      <c r="B419" t="s">
+    <row r="405" spans="2:2">
+      <c r="B405" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3878,7 +3878,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
